--- a/MySQL/专项行动记录表.xlsx
+++ b/MySQL/专项行动记录表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>2018-03</t>
   </si>
@@ -39,100 +39,82 @@
     </r>
   </si>
   <si>
-    <t>广州宗尚贸易有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000097167 </t>
-  </si>
-  <si>
-    <t>广州市雍随志网络科技有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000194321 </t>
-  </si>
-  <si>
-    <t>广州市琳晴荣皮具有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000219237 </t>
-  </si>
-  <si>
-    <t>广州市天惠纸制品有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000044341 </t>
-  </si>
-  <si>
-    <t>广州市森鹏纸业有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000236721 </t>
-  </si>
-  <si>
-    <t>广州市国安货运代理有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000099156 </t>
-  </si>
-  <si>
-    <t>广州市欧丽皮具有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000044995 </t>
-  </si>
-  <si>
-    <t>广州市创庆皮具有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000032349 </t>
-  </si>
-  <si>
-    <t>广州市雁森皮革贸易有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000160444 </t>
-  </si>
-  <si>
-    <t>邵东县登高皮具有限公司广州分公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000150780 </t>
-  </si>
-  <si>
-    <t>广州飞霞皮具有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000177829 </t>
-  </si>
-  <si>
-    <t>广州市庭豪进出口有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000097087 </t>
-  </si>
-  <si>
-    <t>广州虹亿贸易有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000143944 </t>
-  </si>
-  <si>
-    <t>广州昀昀皮具有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000196786 </t>
-  </si>
-  <si>
-    <t>广州市吴辉皮具贸易有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000199690 </t>
-  </si>
-  <si>
-    <t>广州江锦贸易有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440121000127910 </t>
+    <t>广州皮都皮具发展股份有限公司</t>
+  </si>
+  <si>
+    <t>440101000230188</t>
+  </si>
+  <si>
+    <t>广州四分之三贸易有限公司</t>
+  </si>
+  <si>
+    <t>440105000268411</t>
+  </si>
+  <si>
+    <t>广州聚包包网络科技有限公司</t>
+  </si>
+  <si>
+    <t>440121000146228</t>
+  </si>
+  <si>
+    <t>广州市铭义知识产权代理有限公司</t>
+  </si>
+  <si>
+    <t>440121000173251</t>
+  </si>
+  <si>
+    <t>广东斐誉科技有限公司</t>
+  </si>
+  <si>
+    <t>440121000095466</t>
+  </si>
+  <si>
+    <t>广州市芒果企业信息咨询有限公司</t>
+  </si>
+  <si>
+    <t>440121000185492</t>
+  </si>
+  <si>
+    <t>广州市博铭文化传播有限公司花都狮岭分公司</t>
+  </si>
+  <si>
+    <t>440121000041288</t>
+  </si>
+  <si>
+    <t>广州才聚人力资源有限公司</t>
+  </si>
+  <si>
+    <t>440121000018550</t>
+  </si>
+  <si>
+    <t>广州才聚文化发展有限公司</t>
+  </si>
+  <si>
+    <t>440121000146507</t>
+  </si>
+  <si>
+    <t>广州无招网络技术有限公司</t>
+  </si>
+  <si>
+    <t>440121000262125</t>
+  </si>
+  <si>
+    <t>广州市贵丽实业发展有限公司</t>
+  </si>
+  <si>
+    <t>440121000011634</t>
+  </si>
+  <si>
+    <t>广州星点电影院有限公司</t>
+  </si>
+  <si>
+    <t>440121000240233</t>
+  </si>
+  <si>
+    <t>广州网申网络科技有限公司</t>
+  </si>
+  <si>
+    <t>440121000284671</t>
   </si>
 </sst>
 </file>
@@ -141,11 +123,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -165,6 +147,11 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -172,6 +159,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -193,13 +210,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,50 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +268,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -325,6 +312,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -379,6 +396,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -433,48 +462,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -510,12 +497,51 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,15 +560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -554,36 +571,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +595,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -619,155 +621,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1093,10 +1098,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D49"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1118,16 +1123,16 @@
       <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>43161</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>43219</v>
       </c>
     </row>
@@ -1141,16 +1146,16 @@
       <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>43161</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>43219</v>
       </c>
     </row>
@@ -1164,16 +1169,16 @@
       <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>43161</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>43219</v>
       </c>
     </row>
@@ -1187,16 +1192,16 @@
       <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>43161</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>43219</v>
       </c>
     </row>
@@ -1210,16 +1215,16 @@
       <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>43161</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>43219</v>
       </c>
     </row>
@@ -1233,16 +1238,16 @@
       <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>43161</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>43219</v>
       </c>
     </row>
@@ -1256,16 +1261,16 @@
       <c r="C7" s="2">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>43161</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>43219</v>
       </c>
     </row>
@@ -1279,16 +1284,16 @@
       <c r="C8" s="2">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>43161</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>43219</v>
       </c>
     </row>
@@ -1302,16 +1307,16 @@
       <c r="C9" s="2">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>43161</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>43219</v>
       </c>
     </row>
@@ -1325,16 +1330,16 @@
       <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>43161</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>43219</v>
       </c>
     </row>
@@ -1348,16 +1353,16 @@
       <c r="C11" s="2">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>43161</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <v>43219</v>
       </c>
     </row>
@@ -1371,16 +1376,16 @@
       <c r="C12" s="2">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>43161</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>43219</v>
       </c>
     </row>
@@ -1394,85 +1399,16 @@
       <c r="C13" s="2">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>43161</v>
       </c>
-      <c r="G13" s="3">
-        <v>43219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="3">
-        <v>43161</v>
-      </c>
-      <c r="G14" s="3">
-        <v>43219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="3">
-        <v>43161</v>
-      </c>
-      <c r="G15" s="3">
-        <v>43219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="3">
-        <v>43161</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="G13" s="4">
         <v>43219</v>
       </c>
     </row>

--- a/MySQL/专项行动记录表.xlsx
+++ b/MySQL/专项行动记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="SL_corp" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>行动序号</t>
   </si>
@@ -41,39 +41,6 @@
   </si>
   <si>
     <t>预设编号</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>盘古路示范街整治</t>
-  </si>
-  <si>
-    <t>未定</t>
-  </si>
-  <si>
-    <t>pangu1</t>
-  </si>
-  <si>
-    <t>盘古路2号</t>
-  </si>
-  <si>
-    <t>pangu2</t>
-  </si>
-  <si>
-    <t>盘古路3号</t>
-  </si>
-  <si>
-    <t>pangu3</t>
-  </si>
-  <si>
-    <t>盘古路4号</t>
-  </si>
-  <si>
-    <t>pangu4</t>
-  </si>
-  <si>
-    <t>pangu5</t>
   </si>
   <si>
     <r>
@@ -762,152 +729,59 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>盘古路1号</t>
+    <t>第二季度特种设备抽查</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>盘古路XXX号</t>
+    <t>广州市东信房地产开发有限公司</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>广州市花都区狮岭测试用营业一部</t>
+    <t>广州铁路（集团）公司广州机车检修段</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>广州市花都区狮岭测试用营业二部</t>
+    <t>广州大功率电力机车修造公司筹备组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>广州市花都区狮岭测试用营业三部</t>
+    <t>广州市花都区第二人民医院</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>44012188888888</t>
+    <t>广州市嘉特斯机电制造有限公司</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>44012188888889</t>
+    <t xml:space="preserve">伍时佳施工队 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>44012188888810</t>
+    <t>440121000112695</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
+    <t>440121000106074</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
+    <t>440121000253333</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G8691008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>718106330</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>699783853</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-05</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -915,7 +789,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -969,25 +843,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1103,11 +958,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1126,14 +1002,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1411,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" activeCellId="1" sqref="D9 D13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1431,33 +1299,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="138.75" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="A1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="138.75" customHeight="1" thickBot="1">
-      <c r="A2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1485,225 +1353,155 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10">
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="28.5">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7">
+        <v>43191</v>
+      </c>
+      <c r="G4" s="7">
+        <v>43372</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="28.5">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7">
+        <v>43191</v>
+      </c>
+      <c r="G5" s="7">
+        <v>43372</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" s="9" customFormat="1" ht="28.5">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7">
+        <v>43191</v>
+      </c>
+      <c r="G6" s="7">
+        <v>43372</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="28.5">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F7" s="7">
+        <v>43191</v>
+      </c>
+      <c r="G7" s="7">
+        <v>43372</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="8"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11" t="s">
+    <row r="8" spans="1:9" s="9" customFormat="1" ht="28.5">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7">
+        <v>43191</v>
+      </c>
+      <c r="G8" s="7">
+        <v>43372</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" s="9" customFormat="1" ht="28.5">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10">
-        <v>3</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10">
-        <v>4</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="C9" s="5">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="10">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="10">
-        <v>3</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="2"/>
+      <c r="E9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7">
+        <v>43191</v>
+      </c>
+      <c r="G9" s="7">
+        <v>43372</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/MySQL/专项行动记录表.xlsx
+++ b/MySQL/专项行动记录表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
   <si>
     <t>行动序号</t>
   </si>
@@ -437,7 +437,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -726,63 +726,212 @@
       </rPr>
       <t>行开始的数据即可。）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二季度特种设备抽查</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市东信房地产开发有限公司</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州铁路（集团）公司广州机车检修段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州大功率电力机车修造公司筹备组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市花都区第二人民医院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市嘉特斯机电制造有限公司</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">伍时佳施工队 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>440121000112695</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>440121000106074</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>440121000253333</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G8691008</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>718106330</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>699783853</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-05</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>440121000149146</t>
+  </si>
+  <si>
+    <t>广州市央培教育咨询服务有限公司</t>
+  </si>
+  <si>
+    <t>440106000884702</t>
+  </si>
+  <si>
+    <t>广州市青长蓝教育信息咨询有限公司</t>
+  </si>
+  <si>
+    <t>440104000420120</t>
+  </si>
+  <si>
+    <t>广州嗳培教育咨询有限公司</t>
+  </si>
+  <si>
+    <t>440121000172648</t>
+  </si>
+  <si>
+    <t>广州益信群教育咨询有限公司</t>
+  </si>
+  <si>
+    <t>440121000245325</t>
+  </si>
+  <si>
+    <t>广州澳兹盖特教育咨询有限公司</t>
+  </si>
+  <si>
+    <t>440121000265644</t>
+  </si>
+  <si>
+    <t>广州智慧儿童早期教育有限公司</t>
+  </si>
+  <si>
+    <t>440121000272153</t>
+  </si>
+  <si>
+    <t>赣州九牛驾驶员培训有限公司广州花都分公司</t>
+  </si>
+  <si>
+    <t>440121000277498</t>
+  </si>
+  <si>
+    <t>广州裕兴教育信息咨询有限公司</t>
+  </si>
+  <si>
+    <t>440121000284124</t>
+  </si>
+  <si>
+    <t>广州市贝斯曼教育科技有限公司</t>
+  </si>
+  <si>
+    <t>440121000296083</t>
+  </si>
+  <si>
+    <t>广州市源计划跆拳道培训有限公司</t>
+  </si>
+  <si>
+    <t>440121000310886</t>
+  </si>
+  <si>
+    <t>广东思创之间教育发展有限公司</t>
+  </si>
+  <si>
+    <t>440121000318866</t>
+  </si>
+  <si>
+    <t>广州市育美艺术培训有限公司</t>
+  </si>
+  <si>
+    <t>440121000332234</t>
+  </si>
+  <si>
+    <t>广州艺冠艺术培训有限公司</t>
+  </si>
+  <si>
+    <t>440121000339373</t>
+  </si>
+  <si>
+    <t>广州市车都教育咨询有限公司</t>
+  </si>
+  <si>
+    <t>440121000343290</t>
+  </si>
+  <si>
+    <t>广州锐越恺思教育科技有限公司</t>
+  </si>
+  <si>
+    <t>440121000360223</t>
+  </si>
+  <si>
+    <t>菲卡丹职业技能培训（广州）有限公司</t>
+  </si>
+  <si>
+    <t>440121000361134</t>
+  </si>
+  <si>
+    <t>广州华谊文化教育有限公司</t>
+  </si>
+  <si>
+    <t>440121000377051</t>
+  </si>
+  <si>
+    <t>广州童德英才教育有限公司</t>
+  </si>
+  <si>
+    <t>440121000377795</t>
+  </si>
+  <si>
+    <t>广州市宏睿教育投资有限公司</t>
+  </si>
+  <si>
+    <t>440121000386110</t>
+  </si>
+  <si>
+    <t>广州贝贝优教育信息咨询有限公司</t>
+  </si>
+  <si>
+    <t>440121000399212</t>
+  </si>
+  <si>
+    <t>广州海欣教育科技有限公司</t>
+  </si>
+  <si>
+    <t>440121000402339</t>
+  </si>
+  <si>
+    <t>广州翰飞教育信息咨询服务有限公司</t>
+  </si>
+  <si>
+    <t>440121000414196</t>
+  </si>
+  <si>
+    <t>广州市乐享教育咨询有限公司</t>
+  </si>
+  <si>
+    <t>440121000426698</t>
+  </si>
+  <si>
+    <t>广州市童之窗教育咨询有限公司</t>
+  </si>
+  <si>
+    <t>440121000439827</t>
+  </si>
+  <si>
+    <t>广州学之源教育咨询有限公司</t>
+  </si>
+  <si>
+    <t>440121000442050</t>
+  </si>
+  <si>
+    <t>广州亚古艺术教育咨询有限公司</t>
+  </si>
+  <si>
+    <t>440121601060678</t>
+  </si>
+  <si>
+    <t>广州市花都区狮岭悦雅艺术培训中心</t>
+  </si>
+  <si>
+    <t>440121600967077</t>
+  </si>
+  <si>
+    <t>广州市花都区狮岭凡高文化艺术培训中心</t>
+  </si>
+  <si>
+    <t>440121600982786</t>
+  </si>
+  <si>
+    <t>广州市花都区狮岭学漾教育咨询服务中心</t>
+  </si>
+  <si>
+    <t>440121601033866</t>
+  </si>
+  <si>
+    <t>广州市花都区狮岭才德教育咨询服务中心</t>
+  </si>
+  <si>
+    <t>440121600897099</t>
+  </si>
+  <si>
+    <t>广州市花都区狮岭腾翔教育咨询服务部</t>
+  </si>
+  <si>
+    <t>440121600918443</t>
+  </si>
+  <si>
+    <t>广州市花都区狮岭思宇教育咨询服务部</t>
+  </si>
+  <si>
+    <t>440121601048868</t>
+  </si>
+  <si>
+    <t>广州市花都区狮岭花冠教育咨询服务部</t>
+  </si>
+  <si>
+    <t>校外培训机构专项治理行动</t>
   </si>
 </sst>
 </file>
@@ -798,11 +947,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -843,6 +987,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -958,19 +1108,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -981,26 +1128,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1299,30 +1450,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="138.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="138.75" customHeight="1" thickBot="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -1353,155 +1504,830 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="28.5">
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="30">
       <c r="A4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="7">
-        <v>43191</v>
-      </c>
-      <c r="G4" s="7">
-        <v>43372</v>
+      <c r="F4" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G4" s="6">
+        <v>43341</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" ht="28.5">
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="30">
       <c r="A5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7">
-        <v>43191</v>
-      </c>
-      <c r="G5" s="7">
-        <v>43372</v>
+      <c r="D5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G5" s="6">
+        <v>43341</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" ht="28.5">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="30">
       <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7">
-        <v>43191</v>
-      </c>
-      <c r="G6" s="7">
-        <v>43372</v>
+      <c r="D6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G6" s="6">
+        <v>43341</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="28.5">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="30">
       <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7">
-        <v>43191</v>
-      </c>
-      <c r="G7" s="7">
-        <v>43372</v>
+      <c r="D7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G7" s="6">
+        <v>43341</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" ht="28.5">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="30">
       <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="C8" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7">
-        <v>43191</v>
-      </c>
-      <c r="G8" s="7">
-        <v>43372</v>
+      <c r="D8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G8" s="6">
+        <v>43341</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" ht="28.5">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="30">
       <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="C9" s="5">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G9" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G10" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="30">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G11" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="30">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G12" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G13" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="30">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="5">
+        <v>11</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G14" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="5">
+        <v>12</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G15" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="5">
+        <v>13</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G16" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="5">
+        <v>14</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G17" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="5">
+        <v>15</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G18" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" ht="30">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="5">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G19" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="30">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="5">
         <v>17</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="D20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G20" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" ht="30">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="5">
+        <v>18</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G21" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" ht="30">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="5">
+        <v>19</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G22" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" ht="30">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="5">
+        <v>20</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G23" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="30">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="5">
         <v>21</v>
       </c>
-      <c r="F9" s="7">
-        <v>43191</v>
-      </c>
-      <c r="G9" s="7">
-        <v>43372</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
+      <c r="D24" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G24" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="5">
+        <v>22</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G25" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" ht="30">
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="5">
+        <v>23</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G26" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" ht="30">
+      <c r="A27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="5">
+        <v>24</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G27" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="5">
+        <v>25</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G28" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" ht="30">
+      <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="5">
+        <v>26</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G29" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" ht="30">
+      <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="5">
+        <v>27</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G30" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" ht="30">
+      <c r="A31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="5">
+        <v>28</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G31" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" ht="30">
+      <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="5">
+        <v>29</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G32" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="5">
+        <v>30</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G33" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" ht="30">
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="5">
+        <v>31</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G34" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" ht="30">
+      <c r="A35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="5">
+        <v>32</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G35" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" ht="30">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="5">
+        <v>33</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="6">
+        <v>43231</v>
+      </c>
+      <c r="G36" s="6">
+        <v>43341</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1509,7 +2335,7 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
